--- a/images/TreeDiagramOrderMatters.xlsx
+++ b/images/TreeDiagramOrderMatters.xlsx
@@ -16,6 +16,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1560,6 +1564,753 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -9456,6 +10207,822 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{3E111D25-5197-4D43-96A5-371713BEC8B4}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" type="parTrans" cxnId="{342BC012-24C3-2545-930B-42CE97E9978F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9260C5D9-D3B1-7947-AEE7-F9A7F52B569E}" type="sibTrans" cxnId="{342BC012-24C3-2545-930B-42CE97E9978F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7F096C53-65A4-A943-9D96-565972AE7F64}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" type="parTrans" cxnId="{3FDC333A-7399-B54A-9F6C-BB566B2EC729}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{689F598E-47D3-1246-8CE1-40CB298BB1EF}" type="sibTrans" cxnId="{3FDC333A-7399-B54A-9F6C-BB566B2EC729}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>AB</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" type="parTrans" cxnId="{06355540-1DE1-204E-89FB-4C78A09D8C60}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6131F373-8DEA-6C4C-A67D-7BC453D3EA70}" type="sibTrans" cxnId="{06355540-1DE1-204E-89FB-4C78A09D8C60}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>BA</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" type="parTrans" cxnId="{887D55C6-3EB1-764A-9884-C66B17508356}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B3C07C2-57B4-FF40-BAA6-89D232BA0E20}" type="sibTrans" cxnId="{887D55C6-3EB1-764A-9884-C66B17508356}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E944D0F-E2FF-374A-959D-F86F89A7912D}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>BC</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" type="parTrans" cxnId="{1E04CED9-E520-5048-9980-998D01F10DE7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{323FD8E6-B60F-B049-9ED6-77D5B2C8BDEC}" type="sibTrans" cxnId="{1E04CED9-E520-5048-9980-998D01F10DE7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{027158DA-12FB-5146-818A-46F3A1800EC4}" type="parTrans" cxnId="{B9B71E6C-6C3C-BA4C-822C-0C912C335279}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D2AC9CB-03E2-C84B-BF0E-2B70B7DE5188}" type="sibTrans" cxnId="{B9B71E6C-6C3C-BA4C-822C-0C912C335279}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3119D438-B307-5844-BF03-5043B2FC9DB9}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>CA</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" type="parTrans" cxnId="{F307D0B8-E779-FA43-975E-B66C44181591}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8598FD1-8AD4-AB4F-92ED-D15E32E30424}" type="sibTrans" cxnId="{F307D0B8-E779-FA43-975E-B66C44181591}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46578F1E-15AC-C241-9789-7EDDC0A080AD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>AC</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" type="parTrans" cxnId="{4CA65AF8-7660-A64C-906E-03DA2F69CC52}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{337E1B39-C021-5B4B-B371-138832ABD89C}" type="sibTrans" cxnId="{4CA65AF8-7660-A64C-906E-03DA2F69CC52}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE649C18-C198-7F47-AB21-8BC20F66782B}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>CB</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" type="parTrans" cxnId="{CABD0990-25AD-4847-8C20-1A84D77D241E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA32965-366F-2E4C-90C4-549B7A39A264}" type="sibTrans" cxnId="{CABD0990-25AD-4847-8C20-1A84D77D241E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Permutations</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>of {A,B,C}</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B37D31FF-AE28-C94A-B0C1-6F296DF618E5}" type="sibTrans" cxnId="{A7680A46-546A-BF42-B3E9-B3240CB7700D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1AB2745E-6B61-DF49-8F72-ACF578287CC1}" type="parTrans" cxnId="{A7680A46-546A-BF42-B3E9-B3240CB7700D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{36E3C583-7F75-3D43-A457-850FFA7BF07F}" type="pres">
+      <dgm:prSet presAssocID="{3E111D25-5197-4D43-96A5-371713BEC8B4}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFFF297D-726C-0F48-B5CC-60BE220443B4}" type="pres">
+      <dgm:prSet presAssocID="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6010C7F2-212C-104E-BB4D-2146B4AFF851}" type="pres">
+      <dgm:prSet presAssocID="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" type="pres">
+      <dgm:prSet presAssocID="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B21C7190-E6AC-2241-AFFB-7206E0D6A4BF}" type="pres">
+      <dgm:prSet presAssocID="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{219C3547-1E0F-C041-ACB2-15AB82EC7C59}" type="pres">
+      <dgm:prSet presAssocID="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C4A355B-EE43-4B45-98DB-23D85F3AF7D7}" type="pres">
+      <dgm:prSet presAssocID="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{632B01B0-8E24-024A-80C1-EEFE0C90BA75}" type="pres">
+      <dgm:prSet presAssocID="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" type="pres">
+      <dgm:prSet presAssocID="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DEDDEFC-44F6-F642-8142-3D560217BBDF}" type="pres">
+      <dgm:prSet presAssocID="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F0CC550-EB95-BC4E-8DA8-078E8CDA3335}" type="pres">
+      <dgm:prSet presAssocID="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FFBB0CE5-E003-8544-964B-498535CE369D}" type="pres">
+      <dgm:prSet presAssocID="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D6D5D45-7349-AA4B-985D-EF9D88B44ABE}" type="pres">
+      <dgm:prSet presAssocID="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED26FE62-DE19-3F47-BE48-2445DE0D60D1}" type="pres">
+      <dgm:prSet presAssocID="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A7DFBB53-4013-4A46-BC84-75B62109C0BC}" type="pres">
+      <dgm:prSet presAssocID="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{594FDB38-FB74-0D46-B9E4-8C61D587743F}" type="pres">
+      <dgm:prSet presAssocID="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77B84DC2-3034-5F48-AA90-3663CA736C5B}" type="pres">
+      <dgm:prSet presAssocID="{46578F1E-15AC-C241-9789-7EDDC0A080AD}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07164A34-BAA7-B14D-BBFF-43B83694CAFB}" type="pres">
+      <dgm:prSet presAssocID="{46578F1E-15AC-C241-9789-7EDDC0A080AD}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F40B949B-1E9C-CA47-B385-35DDEEDA06B4}" type="pres">
+      <dgm:prSet presAssocID="{46578F1E-15AC-C241-9789-7EDDC0A080AD}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24A89BD1-6C00-F841-8BBD-434DBB0613B2}" type="pres">
+      <dgm:prSet presAssocID="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D327DC7-D0A5-3543-907F-477066C3B330}" type="pres">
+      <dgm:prSet presAssocID="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ADD2B321-1767-4B47-9E0B-505DD194C408}" type="pres">
+      <dgm:prSet presAssocID="{7F096C53-65A4-A943-9D96-565972AE7F64}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{777D9101-8557-854F-B0AB-1F0D4C3BD968}" type="pres">
+      <dgm:prSet presAssocID="{7F096C53-65A4-A943-9D96-565972AE7F64}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" type="pres">
+      <dgm:prSet presAssocID="{7F096C53-65A4-A943-9D96-565972AE7F64}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C8A1183-F622-194B-A407-F3B505E8F147}" type="pres">
+      <dgm:prSet presAssocID="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BC7C215C-3130-174B-8FAC-777934631FD5}" type="pres">
+      <dgm:prSet presAssocID="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CCD349DA-3703-F347-A4E1-DCA1BF0FA4A5}" type="pres">
+      <dgm:prSet presAssocID="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A26B887C-0409-6B4A-9330-83974B4278EE}" type="pres">
+      <dgm:prSet presAssocID="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FCCE3E29-BD49-724D-A6FC-94019FAB931A}" type="pres">
+      <dgm:prSet presAssocID="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{729AD674-7F83-C946-AD21-15B125DEBC4F}" type="pres">
+      <dgm:prSet presAssocID="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{61E8C5F9-EE19-DD49-976B-16B3E10DB0F0}" type="pres">
+      <dgm:prSet presAssocID="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13B8E22F-3B70-BC42-A1D2-ED31FD16F8B1}" type="pres">
+      <dgm:prSet presAssocID="{3E944D0F-E2FF-374A-959D-F86F89A7912D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC31CD5C-049A-BE46-90CC-5F68851BC057}" type="pres">
+      <dgm:prSet presAssocID="{3E944D0F-E2FF-374A-959D-F86F89A7912D}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E6137B1-175E-1A40-97A9-1FFD209793E7}" type="pres">
+      <dgm:prSet presAssocID="{3E944D0F-E2FF-374A-959D-F86F89A7912D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{80C68ABB-F937-814D-ADB6-37FD690E154E}" type="pres">
+      <dgm:prSet presAssocID="{027158DA-12FB-5146-818A-46F3A1800EC4}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C26BA966-1A88-A64D-8060-89E32918F5EE}" type="pres">
+      <dgm:prSet presAssocID="{027158DA-12FB-5146-818A-46F3A1800EC4}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0EFCEED8-A000-1F46-8300-48B48AC8EA4C}" type="pres">
+      <dgm:prSet presAssocID="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{435B214F-9D36-8C4D-9F12-93F5DDB6DF84}" type="pres">
+      <dgm:prSet presAssocID="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" type="pres">
+      <dgm:prSet presAssocID="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2240FC4D-6A36-CE41-9828-2C3DB0BBDB72}" type="pres">
+      <dgm:prSet presAssocID="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A32BB68-19AD-2845-8668-3801EBF60ABC}" type="pres">
+      <dgm:prSet presAssocID="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{94CDE563-5DB8-2C46-A3CC-AE14F179F806}" type="pres">
+      <dgm:prSet presAssocID="{3119D438-B307-5844-BF03-5043B2FC9DB9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2A7318C2-9356-8A42-8923-C0FA5665BA05}" type="pres">
+      <dgm:prSet presAssocID="{3119D438-B307-5844-BF03-5043B2FC9DB9}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06A5A7C6-A418-9847-A072-5A985E0E9FEC}" type="pres">
+      <dgm:prSet presAssocID="{3119D438-B307-5844-BF03-5043B2FC9DB9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{22416FAD-F990-EE47-8035-7A92A3B8B9EF}" type="pres">
+      <dgm:prSet presAssocID="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{203013ED-2DB6-5B4D-8020-46A81C52C130}" type="pres">
+      <dgm:prSet presAssocID="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{19531703-4540-9F4E-9945-A7ABB5D00F00}" type="pres">
+      <dgm:prSet presAssocID="{DE649C18-C198-7F47-AB21-8BC20F66782B}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA61D35E-4CCE-9746-B0B2-E47E1A95EE27}" type="pres">
+      <dgm:prSet presAssocID="{DE649C18-C198-7F47-AB21-8BC20F66782B}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1CD91347-EFC6-5D4D-A9B3-1C9C896763B5}" type="pres">
+      <dgm:prSet presAssocID="{DE649C18-C198-7F47-AB21-8BC20F66782B}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{E59653CB-C2D5-2746-9D99-45E0E4BBEF88}" type="presOf" srcId="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" destId="{594FDB38-FB74-0D46-B9E4-8C61D587743F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FD3024D4-267C-CE45-86A9-3E790FE4A19F}" type="presOf" srcId="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" destId="{7C8A1183-F622-194B-A407-F3B505E8F147}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9775A216-E974-5245-BB06-C29DC4E4E26E}" type="presOf" srcId="{027158DA-12FB-5146-818A-46F3A1800EC4}" destId="{C26BA966-1A88-A64D-8060-89E32918F5EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{366537F3-E645-7D4D-B4F3-55B170FE0166}" type="presOf" srcId="{3E944D0F-E2FF-374A-959D-F86F89A7912D}" destId="{AC31CD5C-049A-BE46-90CC-5F68851BC057}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A5BFF7C6-A546-1B4D-AFA7-F1C514832C7A}" type="presOf" srcId="{027158DA-12FB-5146-818A-46F3A1800EC4}" destId="{80C68ABB-F937-814D-ADB6-37FD690E154E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{887D55C6-3EB1-764A-9884-C66B17508356}" srcId="{7F096C53-65A4-A943-9D96-565972AE7F64}" destId="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}" srcOrd="0" destOrd="0" parTransId="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" sibTransId="{6B3C07C2-57B4-FF40-BAA6-89D232BA0E20}"/>
+    <dgm:cxn modelId="{B9B71E6C-6C3C-BA4C-822C-0C912C335279}" srcId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" destId="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" srcOrd="2" destOrd="0" parTransId="{027158DA-12FB-5146-818A-46F3A1800EC4}" sibTransId="{8D2AC9CB-03E2-C84B-BF0E-2B70B7DE5188}"/>
+    <dgm:cxn modelId="{F307D0B8-E779-FA43-975E-B66C44181591}" srcId="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" destId="{3119D438-B307-5844-BF03-5043B2FC9DB9}" srcOrd="0" destOrd="0" parTransId="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" sibTransId="{B8598FD1-8AD4-AB4F-92ED-D15E32E30424}"/>
+    <dgm:cxn modelId="{92F6F53D-D7F7-B447-9563-6CD8C69E8901}" type="presOf" srcId="{C2FF0007-745A-7245-BE4F-1BA7266BEA38}" destId="{A26B887C-0409-6B4A-9330-83974B4278EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{55D88D96-35CA-9343-B92C-1CC044C51B9E}" type="presOf" srcId="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" destId="{2240FC4D-6A36-CE41-9828-2C3DB0BBDB72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D0D7CCE0-882A-5B43-B756-2A6A0EC04D58}" type="presOf" srcId="{3119D438-B307-5844-BF03-5043B2FC9DB9}" destId="{2A7318C2-9356-8A42-8923-C0FA5665BA05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{335792F7-B01A-1346-A180-AC5499AA2C28}" type="presOf" srcId="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" destId="{203013ED-2DB6-5B4D-8020-46A81C52C130}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{06355540-1DE1-204E-89FB-4C78A09D8C60}" srcId="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" destId="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}" srcOrd="0" destOrd="0" parTransId="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" sibTransId="{6131F373-8DEA-6C4C-A67D-7BC453D3EA70}"/>
+    <dgm:cxn modelId="{3BAB7334-D20C-BD46-BB76-EAF7FEB0B1B1}" type="presOf" srcId="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" destId="{435B214F-9D36-8C4D-9F12-93F5DDB6DF84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CABD0990-25AD-4847-8C20-1A84D77D241E}" srcId="{4A30A342-5D56-F240-A9C8-6AE54E56C54A}" destId="{DE649C18-C198-7F47-AB21-8BC20F66782B}" srcOrd="1" destOrd="0" parTransId="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" sibTransId="{1EA32965-366F-2E4C-90C4-549B7A39A264}"/>
+    <dgm:cxn modelId="{8F8A7250-6710-744F-A5EB-C370DA8DDF59}" type="presOf" srcId="{3E111D25-5197-4D43-96A5-371713BEC8B4}" destId="{36E3C583-7F75-3D43-A457-850FFA7BF07F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2456E5D9-7157-1247-ABC1-EB48BA568E52}" type="presOf" srcId="{7A97716A-3AF7-A54B-829E-9D6F156A481E}" destId="{BC7C215C-3130-174B-8FAC-777934631FD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{96E66B0B-C5FB-0B41-B1AA-9CC217B0E1E3}" type="presOf" srcId="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" destId="{24A89BD1-6C00-F841-8BBD-434DBB0613B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{02143DE5-84E7-704E-88A6-A47E857A37AC}" type="presOf" srcId="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" destId="{4DEDDEFC-44F6-F642-8142-3D560217BBDF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E2BE8DA5-A7CA-5941-8DD2-6F5F7F76AF1F}" type="presOf" srcId="{0AD40739-A8C8-5D47-8816-655E0B5CE625}" destId="{1F0CC550-EB95-BC4E-8DA8-078E8CDA3335}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7680A46-546A-BF42-B3E9-B3240CB7700D}" srcId="{3E111D25-5197-4D43-96A5-371713BEC8B4}" destId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" srcOrd="0" destOrd="0" parTransId="{1AB2745E-6B61-DF49-8F72-ACF578287CC1}" sibTransId="{B37D31FF-AE28-C94A-B0C1-6F296DF618E5}"/>
+    <dgm:cxn modelId="{1E04CED9-E520-5048-9980-998D01F10DE7}" srcId="{7F096C53-65A4-A943-9D96-565972AE7F64}" destId="{3E944D0F-E2FF-374A-959D-F86F89A7912D}" srcOrd="1" destOrd="0" parTransId="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" sibTransId="{323FD8E6-B60F-B049-9ED6-77D5B2C8BDEC}"/>
+    <dgm:cxn modelId="{4CA65AF8-7660-A64C-906E-03DA2F69CC52}" srcId="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" destId="{46578F1E-15AC-C241-9789-7EDDC0A080AD}" srcOrd="1" destOrd="0" parTransId="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" sibTransId="{337E1B39-C021-5B4B-B371-138832ABD89C}"/>
+    <dgm:cxn modelId="{CC597590-AB00-764F-94B8-14D23DD591FB}" type="presOf" srcId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" destId="{6010C7F2-212C-104E-BB4D-2146B4AFF851}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{18226370-6078-EC4A-B5CF-75FF52476660}" type="presOf" srcId="{8D363DA4-7194-C84B-BB92-0D51DE7245BA}" destId="{5A32BB68-19AD-2845-8668-3801EBF60ABC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6E36F6F4-BB2F-AD4F-B6AF-86268BB45EA3}" type="presOf" srcId="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" destId="{219C3547-1E0F-C041-ACB2-15AB82EC7C59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3FDC333A-7399-B54A-9F6C-BB566B2EC729}" srcId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" destId="{7F096C53-65A4-A943-9D96-565972AE7F64}" srcOrd="1" destOrd="0" parTransId="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" sibTransId="{689F598E-47D3-1246-8CE1-40CB298BB1EF}"/>
+    <dgm:cxn modelId="{98323830-BB10-4E4D-ADBB-783928B6EA7D}" type="presOf" srcId="{46578F1E-15AC-C241-9789-7EDDC0A080AD}" destId="{07164A34-BAA7-B14D-BBFF-43B83694CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BD6C0627-AD32-8442-8891-FC2ED54827D8}" type="presOf" srcId="{1C882F71-6B31-6E41-B4FB-CCC7A13D7F91}" destId="{A7DFBB53-4013-4A46-BC84-75B62109C0BC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9790B672-3D71-FF4D-A388-7761F6265570}" type="presOf" srcId="{7F096C53-65A4-A943-9D96-565972AE7F64}" destId="{777D9101-8557-854F-B0AB-1F0D4C3BD968}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{99267869-26B6-1D45-ABD1-05A69571233A}" type="presOf" srcId="{7940463E-7C99-8D4A-8B84-A795C1D1A1F9}" destId="{8D6D5D45-7349-AA4B-985D-EF9D88B44ABE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D1C3EE3F-2E95-B04B-9018-0B757938A3EF}" type="presOf" srcId="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" destId="{B21C7190-E6AC-2241-AFFB-7206E0D6A4BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{342BC012-24C3-2545-930B-42CE97E9978F}" srcId="{F1A57F42-59D7-F54D-8AAF-4868D5A5A678}" destId="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" srcOrd="0" destOrd="0" parTransId="{31DFBFE9-5F12-4E45-ABA7-109DBB92A3CC}" sibTransId="{9260C5D9-D3B1-7947-AEE7-F9A7F52B569E}"/>
+    <dgm:cxn modelId="{5E41F95C-E343-814F-A240-4CB84B5E7C3D}" type="presOf" srcId="{DE649C18-C198-7F47-AB21-8BC20F66782B}" destId="{FA61D35E-4CCE-9746-B0B2-E47E1A95EE27}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EEBCF9BD-0BA4-0341-970F-497869FA497F}" type="presOf" srcId="{CCE4F621-2BDF-2D40-90FE-0167262389C5}" destId="{9D327DC7-D0A5-3543-907F-477066C3B330}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{13D1387A-ED58-0B4B-A498-3E7237D12EB0}" type="presOf" srcId="{F7CFE180-5558-CC45-BE3E-5969C8A8B48A}" destId="{632B01B0-8E24-024A-80C1-EEFE0C90BA75}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FFA3B7FE-8E5F-F145-83E3-3D146CD245EE}" type="presOf" srcId="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" destId="{729AD674-7F83-C946-AD21-15B125DEBC4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5E632828-4CBB-4E4A-97F6-5390334D9B8D}" type="presOf" srcId="{F591E05E-315E-8D44-83C7-FB32E4EEBFD1}" destId="{61E8C5F9-EE19-DD49-976B-16B3E10DB0F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{537DB435-3C71-2B47-BC9B-04074C9CFE55}" type="presOf" srcId="{D9F461DF-57AE-7D49-928C-4865ED5D468B}" destId="{22416FAD-F990-EE47-8035-7A92A3B8B9EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{28E0A8AF-AB0A-C049-A303-B8E9BD40DACB}" type="presParOf" srcId="{36E3C583-7F75-3D43-A457-850FFA7BF07F}" destId="{AFFF297D-726C-0F48-B5CC-60BE220443B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F88C376A-707B-8146-9E93-647E2E5DCE6E}" type="presParOf" srcId="{AFFF297D-726C-0F48-B5CC-60BE220443B4}" destId="{6010C7F2-212C-104E-BB4D-2146B4AFF851}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ADAAB1EC-BA2C-9041-9BB8-2C26243BD13C}" type="presParOf" srcId="{AFFF297D-726C-0F48-B5CC-60BE220443B4}" destId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8478D6C9-FD50-374B-ADF7-AA27FE3561C3}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{B21C7190-E6AC-2241-AFFB-7206E0D6A4BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{14001C32-DA91-DD46-95D6-C84C8E947A62}" type="presParOf" srcId="{B21C7190-E6AC-2241-AFFB-7206E0D6A4BF}" destId="{219C3547-1E0F-C041-ACB2-15AB82EC7C59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2A434EA5-F051-F04E-BBDB-97B8A450F4FC}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{5C4A355B-EE43-4B45-98DB-23D85F3AF7D7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FDBF39A6-A346-BD49-AEA2-799B1D74DFD4}" type="presParOf" srcId="{5C4A355B-EE43-4B45-98DB-23D85F3AF7D7}" destId="{632B01B0-8E24-024A-80C1-EEFE0C90BA75}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{11CD674C-2417-A44B-B3A6-6CD92F348007}" type="presParOf" srcId="{5C4A355B-EE43-4B45-98DB-23D85F3AF7D7}" destId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{543ABD04-04E5-9845-9285-1CE17B49F565}" type="presParOf" srcId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" destId="{4DEDDEFC-44F6-F642-8142-3D560217BBDF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{107FA4F2-F0F3-5240-A412-1E8068993887}" type="presParOf" srcId="{4DEDDEFC-44F6-F642-8142-3D560217BBDF}" destId="{1F0CC550-EB95-BC4E-8DA8-078E8CDA3335}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5DA184A6-5C8A-A946-B17D-FD1625D4EC8B}" type="presParOf" srcId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" destId="{FFBB0CE5-E003-8544-964B-498535CE369D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1D96C25B-0895-F14E-8884-6D9AD132191A}" type="presParOf" srcId="{FFBB0CE5-E003-8544-964B-498535CE369D}" destId="{8D6D5D45-7349-AA4B-985D-EF9D88B44ABE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CB3AF0A3-9248-804B-B67E-6290EC51C7D9}" type="presParOf" srcId="{FFBB0CE5-E003-8544-964B-498535CE369D}" destId="{ED26FE62-DE19-3F47-BE48-2445DE0D60D1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D3D2A459-11A5-CF48-8837-F28F2CFE0428}" type="presParOf" srcId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" destId="{A7DFBB53-4013-4A46-BC84-75B62109C0BC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5164BCB1-82C7-9742-A791-44474ACD3351}" type="presParOf" srcId="{A7DFBB53-4013-4A46-BC84-75B62109C0BC}" destId="{594FDB38-FB74-0D46-B9E4-8C61D587743F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D71319A2-1984-2B44-AF5A-E55698C0049D}" type="presParOf" srcId="{409E7FA3-6806-0D4A-B5FE-9B1DDD596E8A}" destId="{77B84DC2-3034-5F48-AA90-3663CA736C5B}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3ACCC77A-A1E8-0146-9B2C-7F40B92F7E1C}" type="presParOf" srcId="{77B84DC2-3034-5F48-AA90-3663CA736C5B}" destId="{07164A34-BAA7-B14D-BBFF-43B83694CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{51DD62C7-C084-5A41-99B3-B68B87B0D002}" type="presParOf" srcId="{77B84DC2-3034-5F48-AA90-3663CA736C5B}" destId="{F40B949B-1E9C-CA47-B385-35DDEEDA06B4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8695FFBB-AE0F-B942-9064-13A6F45B67FA}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{24A89BD1-6C00-F841-8BBD-434DBB0613B2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{430506D9-9E39-944E-A1B7-6A198F54D4D7}" type="presParOf" srcId="{24A89BD1-6C00-F841-8BBD-434DBB0613B2}" destId="{9D327DC7-D0A5-3543-907F-477066C3B330}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{654E809E-0E13-0A4D-885D-8290A59069CA}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{ADD2B321-1767-4B47-9E0B-505DD194C408}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C2F9D63F-5CA3-184E-A8DB-1E64E5113053}" type="presParOf" srcId="{ADD2B321-1767-4B47-9E0B-505DD194C408}" destId="{777D9101-8557-854F-B0AB-1F0D4C3BD968}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{72B19967-5F04-1C4B-B95C-40984A431781}" type="presParOf" srcId="{ADD2B321-1767-4B47-9E0B-505DD194C408}" destId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9AE1C873-4BBD-064A-BB5B-385E77D7D427}" type="presParOf" srcId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" destId="{7C8A1183-F622-194B-A407-F3B505E8F147}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2731936E-2200-0643-B08E-8B1BF7849746}" type="presParOf" srcId="{7C8A1183-F622-194B-A407-F3B505E8F147}" destId="{BC7C215C-3130-174B-8FAC-777934631FD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7EEE7F27-FB11-F84B-93FF-383544FCBAB2}" type="presParOf" srcId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" destId="{CCD349DA-3703-F347-A4E1-DCA1BF0FA4A5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AB01120F-B68A-A149-926E-C853F28768BF}" type="presParOf" srcId="{CCD349DA-3703-F347-A4E1-DCA1BF0FA4A5}" destId="{A26B887C-0409-6B4A-9330-83974B4278EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D345A302-9B77-D745-9C9C-16077A218805}" type="presParOf" srcId="{CCD349DA-3703-F347-A4E1-DCA1BF0FA4A5}" destId="{FCCE3E29-BD49-724D-A6FC-94019FAB931A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{011CCBCF-D747-334A-AB6D-6C90FBC68003}" type="presParOf" srcId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" destId="{729AD674-7F83-C946-AD21-15B125DEBC4F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7256A187-63ED-0647-8F06-D3CDE7F215B4}" type="presParOf" srcId="{729AD674-7F83-C946-AD21-15B125DEBC4F}" destId="{61E8C5F9-EE19-DD49-976B-16B3E10DB0F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D4442F71-7464-3A43-B1A8-E6C0182EB9EC}" type="presParOf" srcId="{5571E6C2-F4C4-A34F-87BE-E08C3EE7621D}" destId="{13B8E22F-3B70-BC42-A1D2-ED31FD16F8B1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A85356C1-7B8C-2343-9345-FE7F271596A3}" type="presParOf" srcId="{13B8E22F-3B70-BC42-A1D2-ED31FD16F8B1}" destId="{AC31CD5C-049A-BE46-90CC-5F68851BC057}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3BE14E64-B2C2-144A-B8CE-012C4543CD9B}" type="presParOf" srcId="{13B8E22F-3B70-BC42-A1D2-ED31FD16F8B1}" destId="{4E6137B1-175E-1A40-97A9-1FFD209793E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E632E2A0-C795-5C43-BB1C-267F0AD93FEB}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{80C68ABB-F937-814D-ADB6-37FD690E154E}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F3C9E7B2-205E-4549-8828-E2440083D540}" type="presParOf" srcId="{80C68ABB-F937-814D-ADB6-37FD690E154E}" destId="{C26BA966-1A88-A64D-8060-89E32918F5EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7FE71F6F-ABEF-2B47-B85B-DF3B5455E6C4}" type="presParOf" srcId="{F70B2C09-4820-204A-99C5-4A6250DD8314}" destId="{0EFCEED8-A000-1F46-8300-48B48AC8EA4C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A9224CD4-334C-0244-B899-3582A40A14FE}" type="presParOf" srcId="{0EFCEED8-A000-1F46-8300-48B48AC8EA4C}" destId="{435B214F-9D36-8C4D-9F12-93F5DDB6DF84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{78B1ED9A-C4C0-1845-9FB1-A2374C9EC3D3}" type="presParOf" srcId="{0EFCEED8-A000-1F46-8300-48B48AC8EA4C}" destId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0767C16A-1557-7F45-8B76-946092D1CE7D}" type="presParOf" srcId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" destId="{2240FC4D-6A36-CE41-9828-2C3DB0BBDB72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{534548CB-E7FF-494A-8813-6C4A0C2EB644}" type="presParOf" srcId="{2240FC4D-6A36-CE41-9828-2C3DB0BBDB72}" destId="{5A32BB68-19AD-2845-8668-3801EBF60ABC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E4FB709D-2C47-CE40-B170-13CD89F24278}" type="presParOf" srcId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" destId="{94CDE563-5DB8-2C46-A3CC-AE14F179F806}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{63270EA4-52E9-8C45-9C78-BE29FC42B5ED}" type="presParOf" srcId="{94CDE563-5DB8-2C46-A3CC-AE14F179F806}" destId="{2A7318C2-9356-8A42-8923-C0FA5665BA05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D47425B7-F110-5643-9046-F5AEEA247412}" type="presParOf" srcId="{94CDE563-5DB8-2C46-A3CC-AE14F179F806}" destId="{06A5A7C6-A418-9847-A072-5A985E0E9FEC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DC8ADA69-F1E7-304B-89D5-1E790FC06487}" type="presParOf" srcId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" destId="{22416FAD-F990-EE47-8035-7A92A3B8B9EF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E0BB547D-29C5-AD46-81A6-93FDBD170405}" type="presParOf" srcId="{22416FAD-F990-EE47-8035-7A92A3B8B9EF}" destId="{203013ED-2DB6-5B4D-8020-46A81C52C130}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7D594231-4C20-F347-9B46-22CEAD10BE15}" type="presParOf" srcId="{244723C2-3E31-DC4D-B4B0-C564DDF23403}" destId="{19531703-4540-9F4E-9945-A7ABB5D00F00}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{42B0B011-76D3-2047-A9F7-20284B6AE23D}" type="presParOf" srcId="{19531703-4540-9F4E-9945-A7ABB5D00F00}" destId="{FA61D35E-4CCE-9746-B0B2-E47E1A95EE27}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6591D01D-FA2B-DE4E-B659-A1D43AF6A5AC}" type="presParOf" srcId="{19531703-4540-9F4E-9945-A7ABB5D00F00}" destId="{1CD91347-EFC6-5D4D-A9B3-1C9C896763B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId15" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -25150,6 +26717,1686 @@
       <dsp:txXfrm>
         <a:off x="3041934" y="7332652"/>
         <a:ext cx="650638" cy="315503"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{6010C7F2-212C-104E-BB4D-2146B4AFF851}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="946" y="2607885"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>Permutations</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>of {A,B,C}</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="19660" y="2626599"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B21C7190-E6AC-2241-AFFB-7206E0D6A4BF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17350740">
+          <a:off x="756428" y="2182760"/>
+          <a:ext cx="1555892" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1555892" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1495477" y="2153684"/>
+        <a:ext cx="77794" cy="77794"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{632B01B0-8E24-024A-80C1-EEFE0C90BA75}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1789946" y="1138350"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1808660" y="1157064"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4DEDDEFC-44F6-F642-8142-3D560217BBDF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3008637" y="1264300"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="1258385"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8D6D5D45-7349-AA4B-985D-EF9D88B44ABE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="770966"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>AB</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="789680"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A7DFBB53-4013-4A46-BC84-75B62109C0BC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3008637" y="1631684"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="1625769"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{07164A34-BAA7-B14D-BBFF-43B83694CAFB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="1505734"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>AC</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="1524448"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{24A89BD1-6C00-F841-8BBD-434DBB0613B2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1278803" y="2917528"/>
+          <a:ext cx="511142" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="511142" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1521596" y="2914571"/>
+        <a:ext cx="25557" cy="25557"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{777D9101-8557-854F-B0AB-1F0D4C3BD968}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1789946" y="2607885"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1808660" y="2626599"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7C8A1183-F622-194B-A407-F3B505E8F147}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3008637" y="2733836"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="2727921"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A26B887C-0409-6B4A-9330-83974B4278EE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="2240501"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>BA</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="2259215"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{729AD674-7F83-C946-AD21-15B125DEBC4F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3008637" y="3101220"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="3095305"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AC31CD5C-049A-BE46-90CC-5F68851BC057}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="2975269"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>BC</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="2993983"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{80C68ABB-F937-814D-ADB6-37FD690E154E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4249260">
+          <a:off x="756428" y="3652295"/>
+          <a:ext cx="1555892" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1555892" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1495477" y="3623220"/>
+        <a:ext cx="77794" cy="77794"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{435B214F-9D36-8C4D-9F12-93F5DDB6DF84}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1789946" y="4077421"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1808660" y="4096135"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2240FC4D-6A36-CE41-9828-2C3DB0BBDB72}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3008637" y="4203371"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="4197456"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2A7318C2-9356-8A42-8923-C0FA5665BA05}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="3710037"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>CA</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="3728751"/>
+        <a:ext cx="1240428" cy="601500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{22416FAD-F990-EE47-8035-7A92A3B8B9EF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3008637" y="4570755"/>
+          <a:ext cx="629474" cy="19643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9821"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="629474" y="9821"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3307637" y="4564840"/>
+        <a:ext cx="31473" cy="31473"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FA61D35E-4CCE-9746-B0B2-E47E1A95EE27}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578946" y="4444805"/>
+          <a:ext cx="1277856" cy="638928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>CB</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3597660" y="4463519"/>
+        <a:ext cx="1240428" cy="601500"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -25796,6 +29043,326 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4">
   <dgm:title val=""/>
@@ -26831,6 +30398,1040 @@
 </file>
 
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10400"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -27921,6 +32522,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28253,8 +32884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
